--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/BatteryIndicator_Ruby.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/BatteryIndicator_Ruby.xlsx
@@ -74,6 +74,9 @@
 </t>
   </si>
   <si>
+    <t>Battery Indicator-Ruby-4.0</t>
+  </si>
+  <si>
     <t>validate1
 {
 validate_PageTitle=Manual Compliance Ruby Specs
@@ -89,10 +92,9 @@
 validate4
 {
 validate_Screenshot=VT200_0251
+validate_Iconposition=batteryview_xpath,left,20
+validate_Iconposition=batteryview_xpath,top,40
 };</t>
-  </si>
-  <si>
-    <t>Battery Indicator-Ruby-4.0</t>
   </si>
 </sst>
 </file>
@@ -555,7 +557,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -602,7 +604,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="180.75" thickBot="1">
+    <row r="2" spans="1:11" ht="203.25" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -610,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -625,7 +627,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
